--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3459648.998976762</v>
+        <v>3459133.369362405</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197854</v>
+        <v>826053.9034197853</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6720680.34997855</v>
+        <v>6720680.349978551</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>197.8422002085939</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -670,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>233.675703983686</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.93354191224999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>67.6046112434552</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>148.8685219677128</v>
+        <v>145.9504860197335</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.85905444009093</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>327.4354774386585</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1189,19 +1189,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>4.582516932845865</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.55301755328497</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
-        <v>11.87843712116524</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>258.9400640545516</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,7 +1584,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530676</v>
@@ -1596,7 +1596,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1615,16 +1615,16 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>117.0383172879896</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>10.76124383727436</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943275</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1821,16 +1821,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662013</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697374</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277697</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380501</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357228</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596442</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875427</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277545</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380501</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357228</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596442</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541635</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>131.2061217386911</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>199.312759772118</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2614,10 +2614,10 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
         <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
-        <v>39.77311089106487</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>28.60476511161568</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3082,7 +3082,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U32" t="n">
         <v>122.8352329541621</v>
@@ -3280,13 +3280,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422874182</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3328,10 +3328,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3511,7 +3511,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3523,7 +3523,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541635</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3571,7 +3571,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3729,7 +3729,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911202</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>117.1355743176519</v>
+        <v>315.034222218936</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323363</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714582</v>
+        <v>122.6880413016963</v>
       </c>
       <c r="F41" t="n">
         <v>338.5159698221593</v>
@@ -3760,7 +3760,7 @@
         <v>246.6326956660115</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529711</v>
+        <v>62.74422147529705</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519723</v>
+        <v>90.63889524519718</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403541</v>
+        <v>264.476216940354</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182327</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X41" t="n">
         <v>311.348554753111</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150796</v>
+        <v>94.29354249150791</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.86725770334763</v>
       </c>
       <c r="E43" t="n">
-        <v>79.7936997562268</v>
+        <v>45.93268642373562</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599407</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.3619890983862</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495825</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613018</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058609</v>
+        <v>48.45245521058604</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161134</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773554</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W43" t="n">
-        <v>70.35991160383087</v>
+        <v>206.2875737849714</v>
       </c>
       <c r="X43" t="n">
         <v>157.529994731684</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911202</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C44" t="n">
         <v>315.034222218936</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3771932323363</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714582</v>
+        <v>324.3481653714581</v>
       </c>
       <c r="F44" t="n">
         <v>338.5159698221593</v>
@@ -3994,10 +3994,10 @@
         <v>334.8216036937141</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660115</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529711</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>148.2771037001342</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182327</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
-        <v>150.2487413119362</v>
+        <v>311.348554753111</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254422</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150796</v>
+        <v>94.29354249150791</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334769</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.7936997562268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599407</v>
+        <v>81.54315117599401</v>
       </c>
       <c r="G46" t="n">
-        <v>92.3619890983862</v>
+        <v>92.36198909838615</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495825</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.74148690391219</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>126.5783987161134</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773554</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W46" t="n">
         <v>206.2875737849714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>140.4452693200852</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2327.655591362702</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="C2" t="n">
-        <v>2127.814985091395</v>
+        <v>1084.227722827935</v>
       </c>
       <c r="D2" t="n">
-        <v>1742.373856308063</v>
+        <v>698.7865940446031</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>296.2030691611477</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>283.3490347315295</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4360,22 +4360,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362702</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362702</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.655591362702</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.655591362702</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.655591362702</v>
+        <v>1477.403224325005</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892307</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>2038.931431892307</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>2038.931431892307</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V4" t="n">
-        <v>2038.931431892307</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W4" t="n">
-        <v>1755.601029823484</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X4" t="n">
-        <v>1687.313543718984</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.201482535628</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.290805874553</v>
+        <v>1390.283507231096</v>
       </c>
       <c r="C5" t="n">
-        <v>1418.290805874553</v>
+        <v>997.1080057340262</v>
       </c>
       <c r="D5" t="n">
-        <v>1418.290805874553</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F5" t="n">
         <v>598.8128425210757</v>
@@ -4567,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2215.276260665349</v>
+        <v>2180.230858009436</v>
       </c>
       <c r="U5" t="n">
-        <v>2215.276260665349</v>
+        <v>2180.230858009436</v>
       </c>
       <c r="V5" t="n">
-        <v>2215.276260665349</v>
+        <v>2180.230858009436</v>
       </c>
       <c r="W5" t="n">
-        <v>2215.276260665349</v>
+        <v>2180.230858009436</v>
       </c>
       <c r="X5" t="n">
-        <v>2215.276260665349</v>
+        <v>1790.778252942493</v>
       </c>
       <c r="Y5" t="n">
-        <v>1818.78555158595</v>
+        <v>1790.778252942493</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>632.8109751081458</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1218.308980114748</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1734.829262705729</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2140.450631422126</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>366.2642166768698</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>366.2642166768698</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>366.2642166768698</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X7" t="n">
-        <v>366.2642166768698</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y7" t="n">
-        <v>366.2642166768698</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.453214517072</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.453214517072</v>
+        <v>785.4733912897823</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>400.03226250645</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4804,52 +4804,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1933.012628880497</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1590.905819584015</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>1590.905819584015</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X8" t="n">
-        <v>1201.453214517072</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.453214517072</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.3243533729269</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>233.3243533729269</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>460.5051170675463</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>418.5323720642282</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>418.5323720642282</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>418.5323720642282</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.5323720642282</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5071,22 +5071,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5202,13 +5202,13 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.04608710776</v>
@@ -5217,19 +5217,19 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S13" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852107</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252416</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042535</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463913</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E14" t="n">
-        <v>613.2152540332704</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F14" t="n">
-        <v>291.2614968504365</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5296,7 +5296,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5308,22 +5308,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>3023.513568164041</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2500.289086410224</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>2205.777162630469</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5415,16 +5415,16 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5433,28 +5433,28 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362516</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757668</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5463,13 +5463,13 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924211</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5533,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L18" t="n">
         <v>865.4243596646552</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072649</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291067</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>270.9691711012507</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>435.0968109750505</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133145</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445237</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862317</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.15895616281</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532861</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161887</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983994</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974513</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924211</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5782,7 +5782,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5794,7 +5794,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5831,22 +5831,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072649</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462905</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072204</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161887</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983994</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974513</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5974,19 +5974,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.768900612944</v>
@@ -6022,19 +6022,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411552</v>
@@ -6150,49 +6150,49 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.171044252417</v>
+        <v>1843.395526006233</v>
       </c>
       <c r="C26" t="n">
-        <v>1021.936224042536</v>
+        <v>1545.160705796352</v>
       </c>
       <c r="D26" t="n">
-        <v>731.4357765463916</v>
+        <v>1254.660258300208</v>
       </c>
       <c r="E26" t="n">
-        <v>423.7929329501245</v>
+        <v>947.0174147039411</v>
       </c>
       <c r="F26" t="n">
-        <v>291.2614968504365</v>
+        <v>625.0636575211072</v>
       </c>
       <c r="G26" t="n">
-        <v>291.2614968504365</v>
+        <v>306.8415832962987</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
         <v>1059.071548358934</v>
@@ -6244,7 +6244,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
         <v>3105.956385205776</v>
@@ -6259,19 +6259,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468836</v>
+        <v>2450.499618222652</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.725108676625</v>
+        <v>2148.949590430442</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6363,10 +6363,10 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D28" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E28" t="n">
         <v>296.5093676443718</v>
@@ -6381,19 +6381,19 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J28" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M28" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N28" t="n">
         <v>1113.046087107759</v>
@@ -6426,7 +6426,7 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y28" t="n">
         <v>583.3517043592133</v>
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.743918024177</v>
+        <v>1856.709141693316</v>
       </c>
       <c r="C29" t="n">
-        <v>1093.509097814296</v>
+        <v>1558.474321483435</v>
       </c>
       <c r="D29" t="n">
-        <v>1053.334238328372</v>
+        <v>1267.973873987291</v>
       </c>
       <c r="E29" t="n">
-        <v>745.6913947321048</v>
+        <v>960.3310303910241</v>
       </c>
       <c r="F29" t="n">
-        <v>423.7376375492708</v>
+        <v>638.3772732081902</v>
       </c>
       <c r="G29" t="n">
-        <v>105.5155633244623</v>
+        <v>320.1551989833817</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244623</v>
+        <v>91.01282983706065</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K29" t="n">
         <v>565.7512566404055</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U29" t="n">
-        <v>2816.584415774168</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V29" t="n">
-        <v>2569.418287764875</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="W29" t="n">
-        <v>2293.359934020351</v>
+        <v>2758.32515768949</v>
       </c>
       <c r="X29" t="n">
-        <v>1998.848010240596</v>
+        <v>2463.813233909736</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.297982448385</v>
+        <v>2162.263206117525</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6600,7 +6600,7 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
         <v>357.127498497981</v>
@@ -6609,7 +6609,7 @@
         <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
         <v>160.810741531167</v>
@@ -6624,19 +6624,19 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
@@ -6651,22 +6651,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G32" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6736,13 +6736,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6782,22 +6782,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>96.81867335321709</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L33" t="n">
-        <v>580.3847592515303</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.156408878212</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N33" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6858,28 +6858,28 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>67.69877031229905</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>149.5338114222409</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>313.6614512960407</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>499.9530296343048</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N34" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O34" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P34" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803419</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924096</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.768900612944</v>
@@ -6949,13 +6949,13 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6964,13 +6964,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6979,10 +6979,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7195,7 +7195,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
         <v>3105.956385205776</v>
@@ -7204,7 +7204,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188067</v>
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7341,43 +7341,43 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1811.185212126973</v>
+        <v>1807.385741249722</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.86645018995</v>
+        <v>1489.169355169989</v>
       </c>
       <c r="D41" t="n">
-        <v>1382.384436823954</v>
+        <v>1178.687341803992</v>
       </c>
       <c r="E41" t="n">
         <v>1054.760027357835</v>
       </c>
       <c r="F41" t="n">
-        <v>712.8247043051487</v>
+        <v>712.8247043051485</v>
       </c>
       <c r="G41" t="n">
-        <v>374.6210642104879</v>
+        <v>374.6210642104878</v>
       </c>
       <c r="H41" t="n">
         <v>125.4971291943146</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3014.401945564163</v>
       </c>
       <c r="T41" t="n">
-        <v>3014.401945564163</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U41" t="n">
-        <v>3014.401945564163</v>
+        <v>2685.066844392851</v>
       </c>
       <c r="V41" t="n">
-        <v>2747.254251685017</v>
+        <v>2417.919150513705</v>
       </c>
       <c r="W41" t="n">
-        <v>2451.21433207064</v>
+        <v>2121.879230899329</v>
       </c>
       <c r="X41" t="n">
-        <v>2136.720842421033</v>
+        <v>1807.385741249722</v>
       </c>
       <c r="Y41" t="n">
-        <v>2136.720842421033</v>
+        <v>1807.385741249722</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.281330363917</v>
+        <v>284.4357808542076</v>
       </c>
       <c r="C43" t="n">
-        <v>457.0353278472423</v>
+        <v>189.189778337533</v>
       </c>
       <c r="D43" t="n">
-        <v>457.0353278472423</v>
+        <v>108.5157806573838</v>
       </c>
       <c r="E43" t="n">
-        <v>376.4356311237809</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>294.0688117540899</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708715</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272091</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L43" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520131</v>
       </c>
       <c r="M43" t="n">
         <v>758.4693605108082</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.126423562548</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O43" t="n">
         <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.642214421897</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.531839812479</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R43" t="n">
-        <v>1472.589965862392</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S43" t="n">
-        <v>1344.732997462278</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="T43" t="n">
-        <v>1183.973061047848</v>
+        <v>1311.830029447963</v>
       </c>
       <c r="U43" t="n">
-        <v>973.4933847070849</v>
+        <v>1101.3503531072</v>
       </c>
       <c r="V43" t="n">
-        <v>782.4731549452453</v>
+        <v>910.3301233453602</v>
       </c>
       <c r="W43" t="n">
-        <v>711.4025371635979</v>
+        <v>701.958836693874</v>
       </c>
       <c r="X43" t="n">
-        <v>552.281330363917</v>
+        <v>542.8376298941932</v>
       </c>
       <c r="Y43" t="n">
-        <v>552.281330363917</v>
+        <v>394.6846841281728</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2011.082836269684</v>
+        <v>1698.580899763311</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.86645018995</v>
+        <v>1380.364513683578</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.384436823954</v>
+        <v>1069.882500317582</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357835</v>
+        <v>742.2580908514624</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051487</v>
+        <v>400.3227677987762</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104879</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943146</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7666,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7681,19 +7681,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2956.181532983418</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2956.181532983418</v>
       </c>
       <c r="W44" t="n">
-        <v>2809.9164655914</v>
+        <v>2660.141613369042</v>
       </c>
       <c r="X44" t="n">
-        <v>2658.150060225807</v>
+        <v>2345.648123719435</v>
       </c>
       <c r="Y44" t="n">
-        <v>2336.618466563745</v>
+        <v>2024.116530057372</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>574.8200180984802</v>
+        <v>333.0268880736994</v>
       </c>
       <c r="C46" t="n">
-        <v>479.5740155818054</v>
+        <v>237.7808855570248</v>
       </c>
       <c r="D46" t="n">
-        <v>398.9000179016563</v>
+        <v>237.7808855570248</v>
       </c>
       <c r="E46" t="n">
-        <v>318.3003211781948</v>
+        <v>237.7808855570248</v>
       </c>
       <c r="F46" t="n">
-        <v>235.9335018085039</v>
+        <v>155.4140661873338</v>
       </c>
       <c r="G46" t="n">
-        <v>142.6385633252855</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272091</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L46" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520131</v>
       </c>
       <c r="M46" t="n">
         <v>758.4693605108082</v>
       </c>
       <c r="N46" t="n">
-        <v>1015.126423562548</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O46" t="n">
         <v>1251.298619624788</v>
       </c>
       <c r="P46" t="n">
-        <v>1444.642214421897</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q46" t="n">
-        <v>1521.531839812479</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>1473.308115667113</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="S46" t="n">
-        <v>1345.451147266999</v>
+        <v>1393.674871412365</v>
       </c>
       <c r="T46" t="n">
-        <v>1184.691210852569</v>
+        <v>1232.914934997935</v>
       </c>
       <c r="U46" t="n">
-        <v>974.2115345118062</v>
+        <v>1022.435258657172</v>
       </c>
       <c r="V46" t="n">
-        <v>783.1913047499665</v>
+        <v>831.4150288953326</v>
       </c>
       <c r="W46" t="n">
-        <v>574.8200180984802</v>
+        <v>623.0437422438464</v>
       </c>
       <c r="X46" t="n">
-        <v>574.8200180984802</v>
+        <v>481.1798338397199</v>
       </c>
       <c r="Y46" t="n">
-        <v>574.8200180984802</v>
+        <v>333.0268880736994</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7990,16 +7990,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>282.2547480662842</v>
       </c>
       <c r="O2" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>92.83741255226374</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>282.2547480662842</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>318.4607528074838</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8537,13 +8537,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>237.3130400541719</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,16 +9008,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>290.9809095353983</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10205,13 +10205,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,10 +10430,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>124.646981443537</v>
+        <v>376.3651575480042</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10448,7 +10448,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056832</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11156,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,7 +11387,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.7170059000173</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>14.35770615252738</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5280978723148</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>148.4426839581566</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>187.5280978723144</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>27.53818568273977</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>247.8223321301176</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>14.35770615252771</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C41" t="n">
-        <v>197.8986479012841</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>201.6601240697618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065847</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254422</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412256</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334769</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.86101333249112</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.54315117599401</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495819</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.5783987161134</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>135.9276621811406</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660115</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529705</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519723</v>
+        <v>90.63889524519718</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530148</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065847</v>
+        <v>30.70857430645037</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403541</v>
+        <v>264.476216940354</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0998134411747</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412256</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334763</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622674</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495819</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613018</v>
+        <v>57.55395684613012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.7109683066739052</v>
+        <v>48.45245521058604</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>157.529994731684</v>
+        <v>17.08472541159873</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083604</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>564088.8592945088</v>
+        <v>564088.8592945087</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>564088.8592945087</v>
+        <v>564088.8592945088</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537011.8195785438</v>
+        <v>537011.819578544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537011.8195785439</v>
+        <v>537011.8195785441</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>703295.4945640911</v>
       </c>
       <c r="D2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="E2" t="n">
         <v>660956.8784646296</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646298</v>
+        <v>660956.8784646292</v>
       </c>
       <c r="G2" t="n">
-        <v>703295.4945640923</v>
+        <v>703295.4945640917</v>
       </c>
       <c r="H2" t="n">
+        <v>703295.4945640914</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703295.4945640913</v>
+      </c>
+      <c r="J2" t="n">
+        <v>660956.8784646291</v>
+      </c>
+      <c r="K2" t="n">
+        <v>660956.8784646285</v>
+      </c>
+      <c r="L2" t="n">
         <v>703295.4945640916</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>703295.4945640917</v>
+      </c>
+      <c r="N2" t="n">
         <v>703295.4945640916</v>
       </c>
-      <c r="J2" t="n">
-        <v>660956.8784646287</v>
-      </c>
-      <c r="K2" t="n">
-        <v>660956.8784646288</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703295.4945640912</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703295.4945640919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703295.4945640914</v>
-      </c>
       <c r="O2" t="n">
-        <v>626892.2155961577</v>
+        <v>626892.2155961578</v>
       </c>
       <c r="P2" t="n">
-        <v>626892.2155961579</v>
+        <v>626892.2155961574</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301444</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602878</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989167</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501406</v>
+        <v>1177.707664501488</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="K4" t="n">
         <v>135951.970348308</v>
@@ -26484,13 +26484,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
@@ -26502,13 +26502,13 @@
         <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040762</v>
+        <v>53449.25755040763</v>
       </c>
       <c r="P5" t="n">
         <v>53449.25755040762</v>
@@ -26527,43 +26527,43 @@
         <v>445026.064475882</v>
       </c>
       <c r="D6" t="n">
-        <v>445026.0644758823</v>
+        <v>445026.0644758822</v>
       </c>
       <c r="E6" t="n">
-        <v>339439.6874697004</v>
+        <v>339331.1269155993</v>
       </c>
       <c r="F6" t="n">
-        <v>469892.6186074127</v>
+        <v>469784.0580533109</v>
       </c>
       <c r="G6" t="n">
-        <v>455474.4783837681</v>
+        <v>455474.4783837676</v>
       </c>
       <c r="H6" t="n">
         <v>484569.4342567818</v>
       </c>
       <c r="I6" t="n">
+        <v>484569.4342567818</v>
+      </c>
+      <c r="J6" t="n">
+        <v>268946.5599812684</v>
+      </c>
+      <c r="K6" t="n">
+        <v>469784.0580533102</v>
+      </c>
+      <c r="L6" t="n">
+        <v>426379.5225107532</v>
+      </c>
+      <c r="M6" t="n">
+        <v>438447.5130168903</v>
+      </c>
+      <c r="N6" t="n">
         <v>484569.4342567819</v>
       </c>
-      <c r="J6" t="n">
-        <v>269055.1205353694</v>
-      </c>
-      <c r="K6" t="n">
-        <v>469892.6186074117</v>
-      </c>
-      <c r="L6" t="n">
-        <v>426379.5225107528</v>
-      </c>
-      <c r="M6" t="n">
-        <v>438447.5130168906</v>
-      </c>
-      <c r="N6" t="n">
-        <v>484569.4342567818</v>
-      </c>
       <c r="O6" t="n">
-        <v>456303.6431172251</v>
+        <v>456107.7372737176</v>
       </c>
       <c r="P6" t="n">
-        <v>457481.3507817268</v>
+        <v>457285.4449382186</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
     </row>
     <row r="3">
@@ -26801,10 +26801,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
         <v>776.489096301444</v>
@@ -26813,7 +26813,7 @@
         <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>776.489096301444</v>
@@ -26822,16 +26822,16 @@
         <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126805</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253598</v>
+        <v>72.73738968253591</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626758</v>
+        <v>1.47213458062686</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126805</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>191.4015462735047</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>175.3554239731909</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27551,13 +27551,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>116.6379714492989</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27599,13 +27599,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>164.1349077513915</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>72.39707444846465</v>
+        <v>75.31511039644394</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27681,10 +27681,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27791,13 +27791,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>262.7253494004271</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>71.12221219596239</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>248.6126853369015</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>221.766534174099</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431675</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28721,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>28.01250026485064</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28958,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668769</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28997,10 +28997,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634527188</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29222,28 +29222,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5.636002634528086</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29930,7 +29930,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668789</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>28.01250026485258</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29951,10 +29951,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R34" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30167,22 +30167,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733236</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30413,10 +30413,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>35.71049010668722</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316276</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34710,16 +34710,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="O2" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.465299698097082</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>133.1362567285001</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>227.4725996515698</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>144.92591800486</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215768</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434254</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>110.6741579516606</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36053,7 +36053,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36065,7 +36065,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835692</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>198.2933506465095</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528614</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36293,10 +36293,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.984252171606</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535427</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36536,10 +36536,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644680569</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36925,13 +36925,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>35.05004611020361</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634528815</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37235,7 +37235,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176445</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37247,10 +37247,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>113.782083667694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37566,7 +37566,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563713</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37709,10 +37709,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>223.8838015594797</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>220.750524481646</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37876,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100364</v>
+        <v>44.13503679100369</v>
       </c>
       <c r="K43" t="n">
         <v>156.8711819499727</v>
@@ -37949,7 +37949,7 @@
         <v>262.3828357159547</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O43" t="n">
         <v>238.5577738002416</v>
@@ -37958,7 +37958,7 @@
         <v>195.2965604011209</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331519</v>
+        <v>77.66628827331525</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,7 +38107,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100364</v>
+        <v>44.13503679100369</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499727</v>
@@ -38186,7 +38186,7 @@
         <v>262.3828357159547</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
         <v>238.5577738002416</v>
@@ -38195,7 +38195,7 @@
         <v>195.2965604011209</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331519</v>
+        <v>77.66628827331525</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
